--- a/Result_docking/PD1 - Pembrolizumab/Prodigy_neurosnap.xlsx
+++ b/Result_docking/PD1 - Pembrolizumab/Prodigy_neurosnap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hubebi-my.sharepoint.com/personal/corp_revillon_hubebi_com/Documents/Documents/Docking/DockingViz/Result_docking/PD1 - Pembrolizumab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="8_{4F86F5A9-40A7-45BF-93BC-910AD66F9787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A2098C0-5E10-4DCF-A4E3-CF52A91D9D3D}"/>
+  <xr:revisionPtr revIDLastSave="642" documentId="8_{4F86F5A9-40A7-45BF-93BC-910AD66F9787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D7624FE-D423-4523-8143-FCC2C0B41F7E}"/>
   <bookViews>
-    <workbookView xWindow="-13150" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{9E45EDD2-1961-47CE-A5E3-F4A66C445474}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9E45EDD2-1961-47CE-A5E3-F4A66C445474}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="194">
   <si>
     <t>File</t>
   </si>
@@ -494,19 +494,184 @@
   </si>
   <si>
     <t>Cluspro w spe</t>
+  </si>
+  <si>
+    <t>Cluspro wt spe</t>
+  </si>
+  <si>
+    <t>Model 0 Cluspro wt spe</t>
+  </si>
+  <si>
+    <t>Model 1 Cluspro wt spe</t>
+  </si>
+  <si>
+    <t>Model 2 Cluspro wt spe</t>
+  </si>
+  <si>
+    <t>Model 4 Cluspro wt spe</t>
+  </si>
+  <si>
+    <t>Model 5 Cluspro wt spe</t>
+  </si>
+  <si>
+    <t>Model 6 Cluspro wt spe</t>
+  </si>
+  <si>
+    <t>Model 7 Cluspro wt spe</t>
+  </si>
+  <si>
+    <t>Model 8 Cluspro wt spe</t>
+  </si>
+  <si>
+    <t>Model 9 Cluspro wt spe</t>
+  </si>
+  <si>
+    <t>Model 3 Cluspro wt spe</t>
+  </si>
+  <si>
+    <t>23.74</t>
+  </si>
+  <si>
+    <t>4.1e-05</t>
+  </si>
+  <si>
+    <t>36.1</t>
+  </si>
+  <si>
+    <t>36.31</t>
+  </si>
+  <si>
+    <t>23.66</t>
+  </si>
+  <si>
+    <t>6.6e-07</t>
+  </si>
+  <si>
+    <t>36.56</t>
+  </si>
+  <si>
+    <t>23.53</t>
+  </si>
+  <si>
+    <t>1.3e-07</t>
+  </si>
+  <si>
+    <t>23.76</t>
+  </si>
+  <si>
+    <t>3.5e-07</t>
+  </si>
+  <si>
+    <t>36.07</t>
+  </si>
+  <si>
+    <t>23.77</t>
+  </si>
+  <si>
+    <t>7.5e-06</t>
+  </si>
+  <si>
+    <t>23.49</t>
+  </si>
+  <si>
+    <t>-8.9</t>
+  </si>
+  <si>
+    <t>2.8e-07</t>
+  </si>
+  <si>
+    <t>35.75</t>
+  </si>
+  <si>
+    <t>2.1e-07</t>
+  </si>
+  <si>
+    <t>23.46</t>
+  </si>
+  <si>
+    <t>-5.8</t>
+  </si>
+  <si>
+    <t>5.8e-05</t>
+  </si>
+  <si>
+    <t>36.39</t>
+  </si>
+  <si>
+    <t>23.41</t>
+  </si>
+  <si>
+    <t>-9.0</t>
+  </si>
+  <si>
+    <t>2.6e-07</t>
+  </si>
+  <si>
+    <t>1.5e-08</t>
+  </si>
+  <si>
+    <t>36.54</t>
+  </si>
+  <si>
+    <t>23.48</t>
+  </si>
+  <si>
+    <t>6.3e-07</t>
+  </si>
+  <si>
+    <t>-7.1</t>
+  </si>
+  <si>
+    <t>6.4e-06</t>
+  </si>
+  <si>
+    <t>8.8e-06</t>
+  </si>
+  <si>
+    <t>-11.3</t>
+  </si>
+  <si>
+    <t>7.6e-07</t>
+  </si>
+  <si>
+    <t>3.4e-07</t>
+  </si>
+  <si>
+    <t>-9.7</t>
+  </si>
+  <si>
+    <t>7.3e-08</t>
+  </si>
+  <si>
+    <t>-9.4</t>
+  </si>
+  <si>
+    <t>0.000007</t>
+  </si>
+  <si>
+    <t>0.000000005</t>
+  </si>
+  <si>
+    <t>0.0000003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF181D1F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -561,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -569,6 +734,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A9E3EA-6DAE-4EE4-814F-1467CEDC70DE}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2290,6 +2460,886 @@
         <v>136</v>
       </c>
     </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32" t="s">
+        <v>152</v>
+      </c>
+      <c r="M32">
+        <v>-6</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>155</v>
+      </c>
+      <c r="L34" t="s">
+        <v>156</v>
+      </c>
+      <c r="M34" t="s">
+        <v>135</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>12</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35" t="s">
+        <v>158</v>
+      </c>
+      <c r="L35" t="s">
+        <v>159</v>
+      </c>
+      <c r="M35" t="s">
+        <v>190</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36">
+        <v>45</v>
+      </c>
+      <c r="E36">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>11</v>
+      </c>
+      <c r="K36" t="s">
+        <v>154</v>
+      </c>
+      <c r="L36" t="s">
+        <v>161</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>6</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>163</v>
+      </c>
+      <c r="L37" t="s">
+        <v>164</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38">
+        <v>34</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38" t="s">
+        <v>76</v>
+      </c>
+      <c r="L38" t="s">
+        <v>166</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39">
+        <v>45</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+      <c r="K39" t="s">
+        <v>169</v>
+      </c>
+      <c r="L39" t="s">
+        <v>152</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>14</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42">
+        <v>58</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42">
+        <v>20</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>11</v>
+      </c>
+      <c r="J42">
+        <v>11</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>8</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>7</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>29</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>8</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <v>31</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>7</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47">
+        <v>79</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>17</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>16</v>
+      </c>
+      <c r="J47">
+        <v>23</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48">
+        <v>28</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49">
+        <v>38</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>12</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>14</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+      <c r="J50">
+        <v>12</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>9</v>
+      </c>
+      <c r="J51">
+        <v>12</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
